--- a/biology/Zoologie/Habronematoidea/Habronematoidea.xlsx
+++ b/biology/Zoologie/Habronematoidea/Habronematoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Habronematoidea sont une super-famille de nématodes (les nématodes sont un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et menant une vie libre ou parasitaire). On trouve ces parasites dans le tractus digestif des oiseaux (pour les Tetrameridae) et des poissons (pour les Cystidicolidae).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (22 mai 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (22 mai 2021) :
 Cystidicolidae Skrjabin, 1946
 Tetrameridae Travassos, 1914</t>
         </is>
